--- a/ferry/Private Ferry Monthly Ridership/2021/PrivateFerryRidership_2021_08.xlsx
+++ b/ferry/Private Ferry Monthly Ridership/2021/PrivateFerryRidership_2021_08.xlsx
@@ -1,38 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OPEN DATA\Datasets\1. Datasets&amp; BusinessDoc_Manual\Ferry\3. Ferry Ridership\1. Data Sample\Private Ferry Ridership Counts\2021 PF Ridership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Private Ferry Monthly Ridership\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5658FB25-D668-4BB3-8560-F80C8042199D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="569"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Totals" sheetId="7" r:id="rId1"/>
-    <sheet name="NYC Ferry" sheetId="1" r:id="rId2"/>
-    <sheet name="NYWW (Port Imperial FC)" sheetId="2" r:id="rId3"/>
-    <sheet name="SeaStreak" sheetId="3" r:id="rId4"/>
-    <sheet name="New York Water Taxi" sheetId="4" r:id="rId5"/>
-    <sheet name="Liberty Landing Ferry" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="NYC Ferry" sheetId="1" r:id="rId3"/>
+    <sheet name="NYWW (Port Imperial FC)" sheetId="2" r:id="rId4"/>
+    <sheet name="SeaStreak" sheetId="3" r:id="rId5"/>
+    <sheet name="New York Water Taxi" sheetId="4" r:id="rId6"/>
+    <sheet name="Liberty Landing Ferry" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Monthly Totals'!$B$2:$C$18</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="111">
   <si>
     <t>Day</t>
   </si>
@@ -352,11 +365,38 @@
   <si>
     <t>Weekday (Daily) Average - All Operators***</t>
   </si>
+  <si>
+    <t>NYCFERRY</t>
+  </si>
+  <si>
+    <t>PIER</t>
+  </si>
+  <si>
+    <t>NYWW</t>
+  </si>
+  <si>
+    <t>SEASTREAK</t>
+  </si>
+  <si>
+    <t>NYWT</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>Sum of NYCFERRY</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
@@ -643,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,6 +867,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,19 +900,40 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,26 +945,11 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,23 +969,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,6 +983,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,6 +1013,420 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yijun Ma" refreshedDate="44529.47656516204" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{FF1C2AF9-3423-418C-9E14-47BD87E6D75A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="L1:M46" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="PIER" numFmtId="0">
+      <sharedItems count="34">
+        <s v="Wall St Pier 11"/>
+        <s v="Dumbo BBP Pier 1"/>
+        <s v="South Williamsburg"/>
+        <s v="North Williamsburg"/>
+        <s v="Greenpoint"/>
+        <s v="Hunters Point South"/>
+        <s v="East 34th Street"/>
+        <s v="Sunset Park BAT"/>
+        <s v="Rockaway"/>
+        <s v="Atlantic Ave BBP Pier 6"/>
+        <s v="Red Hook Atlantic Basin"/>
+        <s v="Bay Ridge"/>
+        <s v="Corlears Hook"/>
+        <s v="Brooklyn Navy Yard"/>
+        <s v="East 34th Stree"/>
+        <s v="Long Island City"/>
+        <s v="Roosevelt Island"/>
+        <s v="Astoria"/>
+        <s v="East 90th St"/>
+        <s v="Soundview"/>
+        <s v="Stuyvesant Cove"/>
+        <s v="SG Battery Park City Vesey St "/>
+        <s v="SG Midtown West W 39th St Pier 79"/>
+        <s v="SG St George"/>
+        <s v="Yankee Pier"/>
+        <s v="Pier 11"/>
+        <s v="BMB Slip 5"/>
+        <s v="Pier 79"/>
+        <s v="Pier 6 BBP Atlantic Ave"/>
+        <s v="Redhook / Ikea Shuttle"/>
+        <s v="World Financial Center/ BPT"/>
+        <s v="E 34 St"/>
+        <s v="Sunset Park /BAT"/>
+        <s v="World Financial Center"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="NYCFERRY" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="124065"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+  <r>
+    <x v="0"/>
+    <n v="32532"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="38025"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="13871"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="36137"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="23486"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="36796"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="38886"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="9938"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="41038"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17468"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="12368"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="10579"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="5506"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4498"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="11949"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="5188"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="21872"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="8306"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="19855"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="21143"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="14697"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="19675"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="15075"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="20520"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="10663"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="15367"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20918"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="6836"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="1517"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2486"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="4081"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4388"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="3437"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="26382"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="124065"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="121679"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="16545"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="7273"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="84755"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="26740"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="26124"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="3420"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="3222"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="13371"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8D048B7-3AF7-4D49-A21D-85F8B9339CBF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:P36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="35">
+        <item x="17"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="10"/>
+        <item x="29"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="32"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="35">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NYCFERRY" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,43 +1691,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="20.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="20.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="78"/>
-    </row>
-    <row r="3" spans="2:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="C2" s="79"/>
+    </row>
+    <row r="3" spans="2:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="76"/>
-    </row>
-    <row r="5" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="77"/>
+    </row>
+    <row r="5" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49" t="s">
         <v>61</v>
       </c>
@@ -1274,7 +1736,7 @@
         <v>380699</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49" t="s">
         <v>62</v>
       </c>
@@ -1283,7 +1745,7 @@
         <v>52864</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="51" t="s">
         <v>63</v>
       </c>
@@ -1292,7 +1754,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>57</v>
       </c>
@@ -1301,7 +1763,7 @@
         <v>13371</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>64</v>
       </c>
@@ -1310,7 +1772,7 @@
         <v>549101</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="54" t="s">
         <v>7</v>
       </c>
@@ -1319,26 +1781,26 @@
         <v>1002677</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="76"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="77"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="49" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="50">
         <f>SUM('NYC Ferry'!I43,'NYWW (Port Imperial FC)'!I42,SeaStreak!I40,'New York Water Taxi'!H43,'Liberty Landing Ferry'!F41)</f>
-        <v>163857</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162048</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="49" t="s">
         <v>66</v>
       </c>
@@ -1347,7 +1809,7 @@
         <v>150805</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="51" t="s">
         <v>31</v>
       </c>
@@ -1356,51 +1818,51 @@
         <v>124165</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="52">
         <f>SUM('NYC Ferry'!L43,'NYWW (Port Imperial FC)'!L42,SeaStreak!L40,'New York Water Taxi'!K43,'Liberty Landing Ferry'!I41)</f>
-        <v>98380</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>96858</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="55">
         <f>SUM(C13:C16)</f>
-        <v>537207</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+        <v>533876</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="83">
         <f>AVERAGE('NYC Ferry'!F45,'NYWW (Port Imperial FC)'!F44,SeaStreak!F42,'New York Water Taxi'!E45,'Liberty Landing Ferry'!C43)</f>
         <v>6135.1454545454553</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
     </row>
-    <row r="24" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="58" t="s">
         <v>99</v>
       </c>
@@ -1411,7 +1873,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="60" t="s">
         <v>68</v>
       </c>
@@ -1421,119 +1883,119 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="73" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="75">
         <f>C24/C25</f>
         <v>30675.727272727272</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" s="67" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="67" t="s">
         <v>96</v>
       </c>
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
     </row>
-    <row r="32" spans="2:11" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" s="67" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="67" t="s">
         <v>98</v>
       </c>
       <c r="J32" s="68"/>
       <c r="K32" s="68"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="67" t="s">
         <v>100</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
@@ -1554,104 +2016,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D84390C-47A9-405C-8588-46039DF288EF}">
+  <dimension ref="A1:AY46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="117"/>
+      <c r="AK1" s="117"/>
+      <c r="AL1" s="117"/>
+      <c r="AM1" s="117"/>
+      <c r="AN1" s="117"/>
+      <c r="AO1" s="117"/>
+      <c r="AP1" s="117"/>
+      <c r="AQ1" s="117"/>
+      <c r="AR1" s="117"/>
+      <c r="AS1" s="117"/>
+      <c r="AT1" s="117"/>
+      <c r="AU1" s="117"/>
+      <c r="AV1" s="117"/>
+      <c r="AW1" s="117"/>
+      <c r="AX1" s="117"/>
+      <c r="AY1" s="117"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>32532</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>26382</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2">
+        <v>26740</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>3420</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2">
+        <v>13371</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2">
+        <v>32532</v>
+      </c>
+      <c r="O2" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="115">
+        <v>19675</v>
+      </c>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="115"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>38025</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>124065</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>26124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3">
+        <v>3222</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3">
+        <v>38025</v>
+      </c>
+      <c r="O3" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="115">
+        <v>10579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>13871</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>121679</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>13871</v>
+      </c>
+      <c r="O4" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="115">
+        <v>11949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>36137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>16545</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>36137</v>
+      </c>
+      <c r="O5" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="115">
+        <v>150805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>7273</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="115">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>23486</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>84755</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>23486</v>
+      </c>
+      <c r="O7" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="115">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>36796</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>36796</v>
+      </c>
+      <c r="O8" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="115">
+        <v>50393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>38886</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9">
+        <v>38886</v>
+      </c>
+      <c r="O9" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="115">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>9938</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10">
+        <v>9938</v>
+      </c>
+      <c r="O10" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="115">
+        <v>19855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>41038</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>41038</v>
+      </c>
+      <c r="O11" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="115">
+        <v>73583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>17468</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12">
+        <v>17468</v>
+      </c>
+      <c r="O12" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="115">
+        <v>30442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>12368</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13">
+        <v>12368</v>
+      </c>
+      <c r="O13" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>10579</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14">
+        <v>10579</v>
+      </c>
+      <c r="O14" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="115">
+        <v>23486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>5506</v>
+      </c>
+      <c r="L15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15">
+        <v>5506</v>
+      </c>
+      <c r="O15" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="115">
+        <v>21143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>4498</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16">
+        <v>4498</v>
+      </c>
+      <c r="O16" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="115">
+        <v>36137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>11949</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17">
+        <v>11949</v>
+      </c>
+      <c r="O17" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="115">
+        <v>26382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>5188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>5188</v>
+      </c>
+      <c r="O18" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="115">
+        <v>16545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>21872</v>
+      </c>
+      <c r="L19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19">
+        <v>21872</v>
+      </c>
+      <c r="O19" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="115">
+        <v>121679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>8306</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>8306</v>
+      </c>
+      <c r="O20" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="115">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>19855</v>
+      </c>
+      <c r="L21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21">
+        <v>19855</v>
+      </c>
+      <c r="O21" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="115">
+        <v>7273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>21143</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>21143</v>
+      </c>
+      <c r="O22" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="115">
+        <v>41038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>14697</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <v>14697</v>
+      </c>
+      <c r="O23" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="115">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>19675</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>19675</v>
+      </c>
+      <c r="O24" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="115">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>15075</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25">
+        <v>15075</v>
+      </c>
+      <c r="O25" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="115">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>20520</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26">
+        <v>20520</v>
+      </c>
+      <c r="O26" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="115">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>10663</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <v>10663</v>
+      </c>
+      <c r="O27" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="115">
+        <v>20918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28">
+        <v>15367</v>
+      </c>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28">
+        <v>15367</v>
+      </c>
+      <c r="O28" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="115">
+        <v>13871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>20918</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>20918</v>
+      </c>
+      <c r="O29" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="115">
+        <v>6836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>6836</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30">
+        <v>6836</v>
+      </c>
+      <c r="O30" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="115">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>1517</v>
+      </c>
+      <c r="L31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31">
+        <v>1517</v>
+      </c>
+      <c r="O31" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" s="115">
+        <v>14436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>2486</v>
+      </c>
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32">
+        <v>2486</v>
+      </c>
+      <c r="O32" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="115">
+        <v>135666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>4081</v>
+      </c>
+      <c r="L33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33">
+        <v>4081</v>
+      </c>
+      <c r="O33" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="115">
+        <v>13371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>4388</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34">
+        <v>4388</v>
+      </c>
+      <c r="O34" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="115">
+        <v>84755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>3437</v>
+      </c>
+      <c r="L35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35">
+        <v>3437</v>
+      </c>
+      <c r="O35" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="115">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>26382</v>
+      </c>
+      <c r="O36" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="115">
+        <v>1002677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37">
+        <v>124065</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38">
+        <v>121679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>16545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40">
+        <v>7273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>84755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42">
+        <v>26740</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>26124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46">
+        <v>13371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="12.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2"/>
+    <col min="2" max="2" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="12.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="12.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="12.6640625" style="2" customWidth="1"/>
     <col min="37" max="37" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="12.7109375" style="2"/>
+    <col min="38" max="38" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="93" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87" t="s">
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
       <c r="S1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
       <c r="Z1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="89" t="s">
+      <c r="AA1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
       <c r="AE1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="90" t="s">
+      <c r="AF1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="85" t="s">
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="83" t="s">
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1760,9 +3186,9 @@
       <c r="AJ2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="83"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK2" s="94"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -1864,7 +3290,7 @@
         <v>17474</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
@@ -1966,7 +3392,7 @@
         <v>16266</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +3494,7 @@
         <v>15774</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -2170,7 +3596,7 @@
         <v>16444</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +3698,7 @@
         <v>21338</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -2374,7 +3800,7 @@
         <v>14158</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +3902,7 @@
         <v>14861</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -2578,7 +4004,7 @@
         <v>15972</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -2680,7 +4106,7 @@
         <v>15513</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +4208,7 @@
         <v>17764</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -2884,7 +4310,7 @@
         <v>15804</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -2986,7 +4412,7 @@
         <v>14972</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -3088,7 +4514,7 @@
         <v>14087</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -3190,7 +4616,7 @@
         <v>14259</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
@@ -3292,7 +4718,7 @@
         <v>16321</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -3400,7 +4826,7 @@
         <v>8793</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -3508,7 +4934,7 @@
         <v>20091</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -3616,7 +5042,7 @@
         <v>19213</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -3724,7 +5150,7 @@
         <v>17618</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -3832,7 +5258,7 @@
         <v>14979</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
@@ -3940,7 +5366,7 @@
         <v>12778</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
@@ -4048,11 +5474,11 @@
         <v>18169</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A25" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="24">
         <f t="shared" ref="C25:AK25" si="1">SUM(C3:C24)</f>
         <v>20745</v>
@@ -4194,70 +5620,70 @@
         <v>352648</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+    <row r="28" spans="1:37" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92" t="s">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93" t="s">
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="87" t="s">
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
       <c r="S28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="T28" s="88" t="s">
+      <c r="T28" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
       <c r="Z28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA28" s="89" t="s">
+      <c r="AA28" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
       <c r="AE28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AF28" s="90" t="s">
+      <c r="AF28" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="85" t="s">
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="AJ28" s="86"/>
-      <c r="AK28" s="83" t="s">
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
@@ -4366,9 +5792,9 @@
       <c r="AJ29" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AK29" s="83"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK29" s="94"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
@@ -4474,7 +5900,7 @@
         <v>21560</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
@@ -4580,7 +6006,7 @@
         <v>33613</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
@@ -4686,7 +6112,7 @@
         <v>17355</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>26</v>
       </c>
@@ -4792,7 +6218,7 @@
         <v>25796</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
@@ -4898,7 +6324,7 @@
         <v>34565</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
@@ -5004,7 +6430,7 @@
         <v>21139</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>20</v>
       </c>
@@ -5110,7 +6536,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -5222,7 +6648,7 @@
         <v>18072</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
@@ -5334,11 +6760,11 @@
         <v>23368</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A39" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="24">
         <f>SUM(C30:C38)</f>
         <v>11787</v>
@@ -5480,7 +6906,7 @@
         <v>196453</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H41" s="48"/>
       <c r="I41" s="48"/>
       <c r="J41" s="48"/>
@@ -5490,14 +6916,14 @@
       <c r="N41" s="48"/>
       <c r="O41" s="48"/>
     </row>
-    <row r="42" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="94" t="s">
+    <row r="42" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C42" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="H42" s="95" t="s">
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="H42" s="85" t="s">
         <v>65</v>
       </c>
       <c r="I42" s="69" t="s">
@@ -5516,17 +6942,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C43" s="97" t="s">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C43" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="26">
         <f>SUM(AK25,AK39)</f>
         <v>549101</v>
       </c>
-      <c r="H43" s="96"/>
+      <c r="H43" s="86"/>
       <c r="I43" s="50">
         <f>SUM(C25,C39,J25,J39,M25,M39,T25,T39,AA25,AI25,AI39,AA39)</f>
         <v>135666</v>
@@ -5547,23 +6973,23 @@
         <v>205466</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C44" s="97" t="s">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C44" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="26">
         <f>AK25</f>
         <v>352648</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C45" s="97" t="s">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C45" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="26">
         <f>AVERAGE(AK3:AK24)</f>
         <v>16029.454545454546</v>
@@ -5571,19 +6997,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="J28:L28"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="AI28:AJ28"/>
@@ -5596,6 +7009,19 @@
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5605,64 +7031,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="13.28515625" style="2"/>
+    <col min="1" max="16384" width="13.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="37" t="s">
         <v>89</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100" t="s">
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100" t="s">
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101" t="s">
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -5738,9 +7164,9 @@
       <c r="Y2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="101"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z2" s="104"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -5808,7 +7234,7 @@
       </c>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
@@ -5876,7 +7302,7 @@
       </c>
       <c r="AA4" s="33"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -5944,7 +7370,7 @@
       </c>
       <c r="AA5" s="33"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -6012,7 +7438,7 @@
       </c>
       <c r="AA6" s="33"/>
     </row>
-    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6082,7 +7508,7 @@
       </c>
       <c r="AA7" s="33"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -6150,7 +7576,7 @@
       </c>
       <c r="AA8" s="33"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -6218,7 +7644,7 @@
       </c>
       <c r="AA9" s="33"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -6286,7 +7712,7 @@
       </c>
       <c r="AA10" s="33"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -6354,7 +7780,7 @@
       </c>
       <c r="AA11" s="33"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
@@ -6422,7 +7848,7 @@
       </c>
       <c r="AA12" s="33"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -6490,7 +7916,7 @@
       </c>
       <c r="AA13" s="33"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -6558,7 +7984,7 @@
       </c>
       <c r="AA14" s="33"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -6626,7 +8052,7 @@
       </c>
       <c r="AA15" s="33"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -6694,7 +8120,7 @@
       </c>
       <c r="AA16" s="33"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
@@ -6762,7 +8188,7 @@
       </c>
       <c r="AA17" s="33"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -6830,7 +8256,7 @@
       </c>
       <c r="AA18" s="33"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -6898,7 +8324,7 @@
       </c>
       <c r="AA19" s="33"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -6966,7 +8392,7 @@
       </c>
       <c r="AA20" s="33"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -7034,7 +8460,7 @@
       </c>
       <c r="AA21" s="33"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -7102,7 +8528,7 @@
       </c>
       <c r="AA22" s="33"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
@@ -7170,7 +8596,7 @@
       </c>
       <c r="AA23" s="33"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
@@ -7238,11 +8664,11 @@
       </c>
       <c r="AA24" s="33"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="24">
         <f t="shared" ref="C25:Z25" si="1">SUM(C3:C24)</f>
         <v>4150</v>
@@ -7341,51 +8767,51 @@
       </c>
       <c r="AA25" s="33"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+    <row r="28" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="100" t="s">
+      <c r="B28" s="106"/>
+      <c r="C28" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="37" t="s">
         <v>89</v>
       </c>
       <c r="J28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="100" t="s">
+      <c r="K28" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100" t="s">
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100" t="s">
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="101" t="s">
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>0</v>
       </c>
@@ -7461,9 +8887,9 @@
       <c r="Y29" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z29" s="101"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z29" s="104"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
@@ -7521,7 +8947,7 @@
       </c>
       <c r="AA30" s="32"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
@@ -7577,7 +9003,7 @@
       </c>
       <c r="AA31" s="33"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
@@ -7635,7 +9061,7 @@
       </c>
       <c r="AA32" s="33"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>26</v>
       </c>
@@ -7693,7 +9119,7 @@
       </c>
       <c r="AA33" s="33"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
@@ -7751,7 +9177,7 @@
       </c>
       <c r="AA34" s="33"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
@@ -7809,7 +9235,7 @@
       </c>
       <c r="AA35" s="33"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>20</v>
       </c>
@@ -7865,7 +9291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -7925,7 +9351,7 @@
       </c>
       <c r="AA37" s="33"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
@@ -7983,11 +9409,11 @@
       </c>
       <c r="AA38" s="33"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="s">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="99"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="24">
         <f>SUM(C30:C38)</f>
         <v>0</v>
@@ -8085,14 +9511,14 @@
         <v>117159</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="94" t="s">
+    <row r="41" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="H41" s="104" t="s">
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="H41" s="99" t="s">
         <v>65</v>
       </c>
       <c r="I41" s="69" t="s">
@@ -8104,27 +9530,32 @@
       <c r="K41" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="L41" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="M41" s="54" t="s">
+      <c r="L41" s="71"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C42" s="87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C42" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="26">
         <f>Z25+Z39</f>
         <v>380699</v>
       </c>
-      <c r="H42" s="105"/>
+      <c r="H42" s="100"/>
       <c r="I42" s="50">
-        <f>SUM(C25:H25, C39:H39,M25,M39)</f>
-        <v>28191</v>
+        <f>SUM(C39:H39,C25:H25)</f>
+        <v>26382</v>
       </c>
       <c r="J42" s="50">
         <f>SUM(I25,I39)</f>
@@ -8134,32 +9565,38 @@
         <f>SUM(R25:Y25,R39:Y39)</f>
         <v>121679</v>
       </c>
-      <c r="L42" s="52">
-        <f>SUM(K25,K39)</f>
-        <v>1522</v>
-      </c>
-      <c r="M42" s="55">
-        <f>SUM(I42:L42)</f>
-        <v>275457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C43" s="97" t="s">
+      <c r="L42" s="52"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="1">
+        <f>J39+J25</f>
+        <v>16545</v>
+      </c>
+      <c r="O42" s="1">
+        <f>SUM(K25:N25,K39:N39)</f>
+        <v>7273</v>
+      </c>
+      <c r="P42" s="1">
+        <f>SUM(O39:Q39,O25:Q25)</f>
+        <v>84755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C43" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="26">
         <f>Z25</f>
         <v>263540</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C44" s="97" t="s">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C44" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="26">
         <f>AVERAGE(Z3:Z24)</f>
         <v>11979.09090909091</v>
@@ -8167,11 +9604,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="R28:Y28"/>
@@ -8186,6 +9618,11 @@
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8195,47 +9632,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L39" activeCellId="1" sqref="J39:J40 L39:L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100" t="s">
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -8260,9 +9697,9 @@
       <c r="H2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="101"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="104"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -8293,7 +9730,7 @@
       </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
@@ -8324,7 +9761,7 @@
       </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -8355,7 +9792,7 @@
       </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -8386,7 +9823,7 @@
       </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -8417,7 +9854,7 @@
       </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +9885,7 @@
       </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -8479,7 +9916,7 @@
       </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -8510,7 +9947,7 @@
       </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -8541,7 +9978,7 @@
       </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
@@ -8572,7 +10009,7 @@
       </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -8603,7 +10040,7 @@
       </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -8634,7 +10071,7 @@
       </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -8665,7 +10102,7 @@
       </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -8696,7 +10133,7 @@
       </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
@@ -8727,7 +10164,7 @@
       </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -8758,7 +10195,7 @@
       </c>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -8789,7 +10226,7 @@
       </c>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -8820,7 +10257,7 @@
       </c>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -8851,7 +10288,7 @@
       </c>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -8882,7 +10319,7 @@
       </c>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
@@ -8913,7 +10350,7 @@
       </c>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
@@ -8944,11 +10381,11 @@
       </c>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="106"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="44">
         <f t="shared" ref="C25:I25" si="1">SUM(C3:C24)</f>
         <v>7893</v>
@@ -8978,26 +10415,26 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100" t="s">
+      <c r="B27" s="103"/>
+      <c r="C27" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100" t="s">
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="101" t="s">
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>0</v>
       </c>
@@ -9022,9 +10459,9 @@
       <c r="H28" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="101"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="104"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>26</v>
       </c>
@@ -9055,7 +10492,7 @@
       </c>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
@@ -9086,7 +10523,7 @@
       </c>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
@@ -9117,7 +10554,7 @@
       </c>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
@@ -9148,7 +10585,7 @@
       </c>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>26</v>
       </c>
@@ -9179,7 +10616,7 @@
       </c>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
@@ -9212,7 +10649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
@@ -9243,7 +10680,7 @@
       </c>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>20</v>
       </c>
@@ -9274,11 +10711,11 @@
       </c>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="106"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="45">
         <f>SUM(C29:C36)</f>
         <v>0</v>
@@ -9308,14 +10745,14 @@
         <v>9937</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="94" t="s">
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C39" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="H39" s="104" t="s">
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="H39" s="99" t="s">
         <v>65</v>
       </c>
       <c r="I39" s="69" t="s">
@@ -9334,17 +10771,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="97" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C40" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
       <c r="F40" s="26">
         <f>I25+I37</f>
         <v>52864</v>
       </c>
-      <c r="H40" s="105"/>
+      <c r="H40" s="100"/>
       <c r="I40" s="50">
         <v>0</v>
       </c>
@@ -9364,23 +10801,23 @@
         <v>52864</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="97" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C41" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
       <c r="F41" s="26">
         <f>I25</f>
         <v>42927</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="97" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C42" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="26">
         <f>AVERAGE(I3:I24)</f>
         <v>1951.2272727272727</v>
@@ -9388,6 +10825,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:E27"/>
@@ -9398,11 +10840,6 @@
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9412,38 +10849,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101" t="s">
+      <c r="D1" s="103"/>
+      <c r="E1" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -9456,9 +10893,9 @@
       <c r="D2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="101"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="104"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -9476,7 +10913,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
@@ -9494,7 +10931,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -9512,7 +10949,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -9530,7 +10967,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -9548,7 +10985,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -9566,7 +11003,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -9584,7 +11021,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -9602,7 +11039,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -9620,7 +11057,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
@@ -9638,7 +11075,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -9656,7 +11093,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -9674,7 +11111,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -9692,7 +11129,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -9710,7 +11147,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
@@ -9728,7 +11165,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -9746,7 +11183,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -9764,7 +11201,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -9782,7 +11219,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -9800,7 +11237,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -9818,7 +11255,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
@@ -9836,7 +11273,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
@@ -9854,11 +11291,11 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="46">
         <f>SUM(C3:C24)</f>
         <v>3420</v>
@@ -9872,20 +11309,20 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100" t="s">
+      <c r="B28" s="103"/>
+      <c r="C28" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="101" t="s">
+      <c r="D28" s="103"/>
+      <c r="E28" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>0</v>
       </c>
@@ -9898,9 +11335,9 @@
       <c r="D29" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="101"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="104"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
@@ -9918,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
@@ -9936,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
@@ -9954,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>26</v>
       </c>
@@ -9972,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
@@ -9990,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
@@ -10008,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>20</v>
       </c>
@@ -10026,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -10044,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
@@ -10062,11 +11499,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="46">
         <f>SUM(C30:C38)</f>
         <v>0</v>
@@ -10080,14 +11517,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="94" t="s">
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="G42" s="104" t="s">
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="G42" s="99" t="s">
         <v>65</v>
       </c>
       <c r="H42" s="69" t="s">
@@ -10106,17 +11543,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="97" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
       <c r="E43" s="26">
         <f>E25+E39</f>
         <v>6642</v>
       </c>
-      <c r="G43" s="105"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="50">
         <v>0</v>
       </c>
@@ -10135,23 +11572,23 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="97" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
       <c r="E44" s="26">
         <f>E25</f>
         <v>6642</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="97" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
       <c r="E45" s="26">
         <f>AVERAGE(E3:E24)</f>
         <v>301.90909090909093</v>
@@ -10159,12 +11596,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A1:B1"/>
@@ -10172,6 +11603,12 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10181,34 +11618,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="103"/>
       <c r="C1" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -10219,7 +11656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -10231,7 +11668,7 @@
       </c>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
@@ -10243,7 +11680,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -10255,7 +11692,7 @@
       </c>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -10267,7 +11704,7 @@
       </c>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -10279,7 +11716,7 @@
       </c>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -10291,7 +11728,7 @@
       </c>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -10303,7 +11740,7 @@
       </c>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -10315,7 +11752,7 @@
       </c>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -10327,7 +11764,7 @@
       </c>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
@@ -10339,7 +11776,7 @@
       </c>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -10351,7 +11788,7 @@
       </c>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -10363,7 +11800,7 @@
       </c>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -10375,7 +11812,7 @@
       </c>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -10387,7 +11824,7 @@
       </c>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
@@ -10399,7 +11836,7 @@
       </c>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -10411,7 +11848,7 @@
       </c>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -10423,7 +11860,7 @@
       </c>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -10435,7 +11872,7 @@
       </c>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -10447,7 +11884,7 @@
       </c>
       <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
@@ -10459,7 +11896,7 @@
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
@@ -10471,7 +11908,7 @@
       </c>
       <c r="D23" s="64"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
@@ -10483,27 +11920,27 @@
       </c>
       <c r="D24" s="64"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="112" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="113"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="24">
         <f>SUM(C3:C24)</f>
         <v>9109</v>
       </c>
       <c r="D25" s="65"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="100"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>0</v>
       </c>
@@ -10514,7 +11951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>20</v>
       </c>
@@ -10526,7 +11963,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
@@ -10538,7 +11975,7 @@
       </c>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>20</v>
       </c>
@@ -10550,7 +11987,7 @@
       </c>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>26</v>
       </c>
@@ -10562,7 +11999,7 @@
       </c>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>20</v>
       </c>
@@ -10574,7 +12011,7 @@
       </c>
       <c r="D33" s="33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>26</v>
       </c>
@@ -10586,7 +12023,7 @@
       </c>
       <c r="D34" s="33"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
@@ -10600,7 +12037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>26</v>
       </c>
@@ -10612,7 +12049,7 @@
       </c>
       <c r="D36" s="33"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>20</v>
       </c>
@@ -10624,23 +12061,23 @@
       </c>
       <c r="D37" s="33"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="112" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="24">
         <f>SUM(C29:C37)</f>
         <v>4262</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="109"/>
-      <c r="E40" s="104" t="s">
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="E40" s="99" t="s">
         <v>65</v>
       </c>
       <c r="F40" s="69" t="s">
@@ -10659,16 +12096,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="110" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="26">
         <f>C25+C38</f>
         <v>13371</v>
       </c>
-      <c r="E41" s="105"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="50">
         <v>0</v>
       </c>
@@ -10685,21 +12122,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="110" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="111"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="26">
         <f>C25</f>
         <v>9109</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="110" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="26">
         <f>AVERAGE(C3:C24)</f>
         <v>414.04545454545456</v>
@@ -10707,15 +12144,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10902,6 +12339,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10910,20 +12353,38 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD6080A-470E-4E2E-A4B9-88A0312BF980}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD6080A-470E-4E2E-A4B9-88A0312BF980}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF40CB2-B6F0-41FE-A7FA-83CDF9153D74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C032654-E9B4-43A0-8845-AA5E73902B51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C032654-E9B4-43A0-8845-AA5E73902B51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF40CB2-B6F0-41FE-A7FA-83CDF9153D74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>